--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,79 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -517,31 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,14 @@
         <v>58</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,14 @@
         <v>81</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,14 @@
         <v>86</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,14 @@
         <v>65</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,14 @@
         <v>82</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,14 @@
         <v>98</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,14 @@
         <v>64</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,6 +592,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +600,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,14 @@
         <v>92</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,6 +616,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +648,14 @@
         <v>80</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +656,14 @@
         <v>92</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,14 @@
         <v>92</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,6 +672,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,6 +688,14 @@
         <v>67</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,6 +696,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,6 +704,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,6 +728,14 @@
         <v>80</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,6 +736,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,14 @@
         <v>80</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_etl.xlsx
+++ b/modified_etl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,6 +752,14 @@
         <v>51</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
